--- a/biology/Botanique/Chou_(plante)/Chou_(plante).xlsx
+++ b/biology/Botanique/Chou_(plante)/Chou_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Chou » est un nom vernaculaire ambigu désignant en français certaines espèces, sous-espèces ou variétés de plantes appartenant généralement à la famille des Brassicaceae, mais aussi à d'autres familles botaniques. Ce sont souvent des légumes comestibles dont on consomme généralement les feuilles, mais aussi l'inflorescence charnue (chou-fleur) ou la tige renflée (chou-rave).
 Les choux sont majoritairement classés dans le genre Brassica. L'espèce la plus connue est le chou commun et ses multiples variétés cultivées.
@@ -512,17 +524,57 @@
           <t>Espèces et variétés appelées choux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Note : pour faciliter les recherches certaines plantes peuvent figurer en double.
-Famille des Brassicaceae
-Genre Brassica
-Les différents types de choux sont difficiles à classifier du fait de l'extrême diversité de leurs formes, leurs couleurs, leurs utilisations selon les pays où ils sont cultivés et utilisés de manières diverses. 
-De nombreuses dénominations se recoupent et il est possible de les classer en plus de 20 groupes[1].
-Par ordre alphabétique on peut citer[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : pour faciliter les recherches certaines plantes peuvent figurer en double.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chou_(plante)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chou_(plante)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces et variétés appelées choux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille des Brassicaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Genre Brassica</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les différents types de choux sont difficiles à classifier du fait de l'extrême diversité de leurs formes, leurs couleurs, leurs utilisations selon les pays où ils sont cultivés et utilisés de manières diverses. 
+De nombreuses dénominations se recoupent et il est possible de les classer en plus de 20 groupes.
+Par ordre alphabétique on peut citer:
 Cabbage - Brassica oleracea var. capitata
 Chou d'aigrette - Brassica oleracea acephala sabellica
-Chou allongé - Brassica elongata[3]
+Chou allongé - Brassica elongata
 Chou brocoli - Brassica oleracea var. italica
 Chou de Bruxelles - Brassica olearacea var. gemmifera
 Chou chinois ou Chou de Chine - Brassica rapa L. subsp. chinensis
@@ -532,7 +584,7 @@
 Chou de Chypre - voir Chou-fleur Brassica oleracea var. botrytis
 Chou commun - Brassica oleracea subsp. oleracea
 Chou Daubenton -  Chou vivace Brassica oleracea var. ramosa
-Chou élancé - Brassica elongata[3]
+Chou élancé - Brassica elongata
 Chou-fleur - Brassica oleracea var. botrytis
 Chou fourrager - voir Chou cavalier Brassica oleracea var. viridis
 Chou frangé - voir chou frisé  Brassica oleracea var. sabauda
@@ -558,7 +610,7 @@
 Chou de Tournefort - Moutarde africaine - Brassica tournefortii
 Chou vivace ou Chou Daubenton - Brassica oleracea var. ramosa
 Chou vert - Brassica olearacea var.sabellica
-Par groupes de Brassica Olaracea, on trouve[1] :
+Par groupes de Brassica Olaracea, on trouve :
 Groupe Ramosa Brassica olearacea L. var.ramosa DC. (1821) : chou branchu, chou à mille têtes...
 Groupe Acephala Brassica olearacea L. var.viridis L.(1753) : chou vert, chou cavalier, chou à vaches...
 Groupe Selenisia Brassica olearacea L. var.selenisia L.(1753) : chou aigrette, chou ornemental...
@@ -575,7 +627,7 @@
 Groupe Pyramidalis Brassica olearacea L. var. capitata L. f. pyramidalis (Mill) O.E. Schulz (1919) : chou pointu, chou nouveau...
 Groupe Botrytis Brassica olearacea L. var. botrytis L. (1753) : chou-fleur...
 Groupe Cymosa Brassica olearacea L. var. cymosa Duchesne (1785) : chou brocoli...
-Par groupes de Brassica rapa, on trouve[1] :
+Par groupes de Brassica rapa, on trouve :
 Groupe oleifera Brassica rapa L. var. sylvestris (Lam.) Briggs (1880) navette...
 Groupe Sarson Brassica rapa L. subsp. sarson (Prain Denford (1975) : sarson, navette indienne...
 Groupe Toria Brassica rapa L. subsp. toria (Prain Denford (1975) ; tori, navette indienne...
@@ -587,20 +639,92 @@
 Groupe Parachinensis Brassica chinensis var. parachinensis L.H. Bailey (1930) Sinqkaja (1927) : choy sum, brocoli chinois,..
 Groupe Nipposinica Brassica rapa L. subsp. nipposinica L.H. Bailey (1930) Hanelt (1986) : mizuna, mibuna, dendragone...
 Groupe Narinosa Brassica rapa L. subsp. narinosa (L.H. Bailey) Hanelt (1986) : rosulaire...
-Groupe Perviridis Brassica rapa L. var. perviridis L.H. Bailey (1930) : moutarde épinard...
-Autres genres de Brassicaceae
-Chou marin - Crambe maritima
+Groupe Perviridis Brassica rapa L. var. perviridis L.H. Bailey (1930) : moutarde épinard...</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chou_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chou_(plante)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces et variétés appelées choux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille des Brassicaceae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres genres de Brassicaceae</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chou marin - Crambe maritima
 Chou nuage blanc - Crambe cordifolia
 Chou de Kerguelen - Pringlea antiscorbutica
 Chou du désert - Schouwia thebaica
-Chou giroflée - Coincya monensis subsp. cheiranthos
-Autres familles
-Chou caraïbe - Xanthosoma sagittifolium (Araceae)
+Chou giroflée - Coincya monensis subsp. cheiranthos</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chou_(plante)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chou_(plante)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces et variétés appelées choux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres familles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chou caraïbe - Xanthosoma sagittifolium (Araceae)
 Chou caraïbe - Colocasia esculenta (Araceae)
 Chou de chien - Mercurialis annua (Euphorbiaceae)
 Chou de chien - Mercurialis prennis (Euphorbiaceae)
-Chou-fleur de Bou Hammama - Anabasis aretioides (Amaranthaceae)[4]
-Chou-fleur du désert - Anabasis aretioides (Amaranthaceae)[5]
+Chou-fleur de Bou Hammama - Anabasis aretioides (Amaranthaceae)
+Chou-fleur du désert - Anabasis aretioides (Amaranthaceae)
 Chou-palmiste - Sabal palmetto (Arecaceae) palmier chou
 Chou piquant - Coccothrinax barbadensis (Arecaceae)
 Chou puant - Symplocarpus renifolius (Araceae)
@@ -609,31 +733,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chou_(plante)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chou_(plante)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Le chou dans la cuisine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>chou farci, farci poitevin
 choucroute
@@ -642,40 +768,79 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Chou_(plante)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chou_(plante)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les choux dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Naissances dans les choux et autres expressions
-Le chou est un symbole de fécondité. Selon la légende populaire, les enfants naissent dans des choux. Un des premiers films de fiction, réalisé par Alice Guy en 1896, s'intitule La Fée aux choux[6], une fantaisie dont le personnage est une fée qui extrait d'un potager de choux un nouveau-né qu'elle montre, ravie, à la caméra.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Naissances dans les choux et autres expressions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le chou est un symbole de fécondité. Selon la légende populaire, les enfants naissent dans des choux. Un des premiers films de fiction, réalisé par Alice Guy en 1896, s'intitule La Fée aux choux, une fantaisie dont le personnage est une fée qui extrait d'un potager de choux un nouveau-né qu'elle montre, ravie, à la caméra.
 On dit que quelqu'un qui a le pavillon auriculaire décollé qu'il a les « oreilles en feuille de chou » ou bien boursouflé les oreilles en chou-fleur.
 « Etre dans les choux » : échouer, être dans une mauvaise situation ; être dans l'embarras.
-Les habitants de la Vendée sont surnommés les « Ventres à choux ».
-Musique
-L'Homme à tête de chou est un des surnoms du chanteur français Serge Gainsbourg en référence à ses oreilles décollées et au titre de son album-concept, sorti en 1976. Le disque lui-même tient son titre d'une sculpture de Claude Lalanne, épouse de François-Xavier Lalanne, acquise par Gainsbourg, que l'on voit sur la pochette. Cette sculpture représente un homme nu assis, mains et jambes écartés, dont la tête est un chou.
-Savez-vous planter les choux est une chanson enfantine dont l'origine remonterait au Moyen Âge[7],[8].</t>
+Les habitants de la Vendée sont surnommés les « Ventres à choux ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chou_(plante)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chou_(plante)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les choux dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Homme à tête de chou est un des surnoms du chanteur français Serge Gainsbourg en référence à ses oreilles décollées et au titre de son album-concept, sorti en 1976. Le disque lui-même tient son titre d'une sculpture de Claude Lalanne, épouse de François-Xavier Lalanne, acquise par Gainsbourg, que l'on voit sur la pochette. Cette sculpture représente un homme nu assis, mains et jambes écartés, dont la tête est un chou.
+Savez-vous planter les choux est une chanson enfantine dont l'origine remonterait au Moyen Âge,.</t>
         </is>
       </c>
     </row>
